--- a/tests/data/test_named_ranges.xlsx
+++ b/tests/data/test_named_ranges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\dataclasses-excel\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A187BD1E-69CD-42A9-AFBF-7CE864201A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE3AE57-A9EF-486F-B079-AFA0DF2B7F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="1900" windowWidth="21600" windowHeight="14200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,28 +16,32 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="baf">Sheet1!$B$3</definedName>
-    <definedName name="bar">Sheet1!$B$2</definedName>
-    <definedName name="dictionary" comment="type: dict">Sheet1!$A$1:$B$3</definedName>
-    <definedName name="foo">Sheet1!$B$1</definedName>
+    <definedName name="datetime">Sheet1!$B$3</definedName>
+    <definedName name="integer">Sheet1!$B$1</definedName>
+    <definedName name="integer_list">Sheet1!$B$4:$B$6</definedName>
+    <definedName name="integer_matrix">Sheet1!$B$7:$C$8</definedName>
+    <definedName name="string">Sheet1!$B$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
-    <t>foo</t>
+    <t>string</t>
   </si>
   <si>
-    <t>bar</t>
+    <t>integer</t>
   </si>
   <si>
-    <t>baf</t>
+    <t>datetime</t>
   </si>
   <si>
-    <t>string</t>
+    <t>integer_list</t>
+  </si>
+  <si>
+    <t>integer_matrix</t>
   </si>
 </sst>
 </file>
@@ -405,10 +409,10 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -417,28 +421,65 @@
     <col min="2" max="2" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>45292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
